--- a/data/trans_orig/RUIDO_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>763</v>
+        <v>863</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17213</v>
+        <v>15145</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03279542360822506</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005617544500330022</v>
+        <v>0.006354942453101036</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1267017750269419</v>
+        <v>0.1114740562466782</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>1486</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3917</v>
+        <v>3582</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.00983082786812318</v>
+        <v>0.009830827868123178</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003172418914963787</v>
+        <v>0.003010242418336029</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02590713539477056</v>
+        <v>0.02369462453001606</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>5942</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2014</v>
+        <v>2039</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16649</v>
+        <v>15942</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02070018999305125</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007016890548323923</v>
+        <v>0.007104134493437162</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05800265894609647</v>
+        <v>0.05553846219686782</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>36411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27207</v>
+        <v>27031</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49313</v>
+        <v>48923</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2680117030548526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2002589207431375</v>
+        <v>0.1989668700127897</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.362974146841111</v>
+        <v>0.3601064222626218</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -833,19 +833,19 @@
         <v>62037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52232</v>
+        <v>51942</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72040</v>
+        <v>72344</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4103498312769506</v>
+        <v>0.4103498312769505</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3454968274094941</v>
+        <v>0.3435793891237794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4765153527348793</v>
+        <v>0.4785272793454864</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>134</v>
@@ -854,19 +854,19 @@
         <v>98448</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>84198</v>
+        <v>83898</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>113908</v>
+        <v>114354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3429798380343191</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2933359229040615</v>
+        <v>0.2922881668088861</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3968423845440464</v>
+        <v>0.3983962549875652</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>66950</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55034</v>
+        <v>55043</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>78632</v>
+        <v>77942</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4927984566464776</v>
+        <v>0.4927984566464777</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4050842051464817</v>
+        <v>0.4051553303667019</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5787861547582356</v>
+        <v>0.5737053201049616</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>119</v>
@@ -904,19 +904,19 @@
         <v>67082</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>57607</v>
+        <v>57286</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>77624</v>
+        <v>77207</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.443721981250081</v>
+        <v>0.4437219812500809</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3810474175252542</v>
+        <v>0.3789237338879391</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5134555987459584</v>
+        <v>0.5106986870671799</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>195</v>
@@ -925,19 +925,19 @@
         <v>134032</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>119031</v>
+        <v>117745</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>149647</v>
+        <v>148610</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4669503449859622</v>
+        <v>0.4669503449859623</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4146870219187395</v>
+        <v>0.4102081957564029</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5213518625350486</v>
+        <v>0.5177384235363731</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>18556</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12112</v>
+        <v>12116</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27602</v>
+        <v>27699</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1365870630975797</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08915396222279016</v>
+        <v>0.08917898340238892</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2031702775428566</v>
+        <v>0.2038817235526702</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -975,19 +975,19 @@
         <v>12106</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8127</v>
+        <v>7936</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17517</v>
+        <v>17518</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08007920418693282</v>
+        <v>0.0800792041869328</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05375674305224302</v>
+        <v>0.05249154875698549</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1158715892029588</v>
+        <v>0.1158771141953229</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -996,19 +996,19 @@
         <v>30663</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22685</v>
+        <v>22369</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41263</v>
+        <v>42528</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1068249125963176</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0790320623728108</v>
+        <v>0.0779304795857665</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1437551875825281</v>
+        <v>0.1481605579016697</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>9484</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5342</v>
+        <v>4985</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16283</v>
+        <v>15869</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0698073535928652</v>
+        <v>0.06980735359286522</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03931962949427852</v>
+        <v>0.03668976395784218</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1198524658451534</v>
+        <v>0.1168034365979674</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -1046,19 +1046,19 @@
         <v>8469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4963</v>
+        <v>5099</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13576</v>
+        <v>13204</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.05601815541791248</v>
+        <v>0.05601815541791246</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03282577749853415</v>
+        <v>0.03372901488041365</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08979877248697711</v>
+        <v>0.08733747132421067</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -1067,19 +1067,19 @@
         <v>17953</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12347</v>
+        <v>12099</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25659</v>
+        <v>25488</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06254471439034982</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04301608624373591</v>
+        <v>0.04215185152810933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08939272061161121</v>
+        <v>0.08879836924417107</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>37713</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25954</v>
+        <v>23676</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54823</v>
+        <v>52879</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1833183588008299</v>
+        <v>0.18331835880083</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1261594557685213</v>
+        <v>0.1150867672188405</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2664864898678458</v>
+        <v>0.257033956007333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1192,19 +1192,19 @@
         <v>45965</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35377</v>
+        <v>35642</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57038</v>
+        <v>58224</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2330335875413747</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1793547073163948</v>
+        <v>0.1806968539365408</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2891721070595297</v>
+        <v>0.2951841794019746</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>84</v>
@@ -1213,19 +1213,19 @@
         <v>83678</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66434</v>
+        <v>65929</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103995</v>
+        <v>102114</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.207652800712838</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.164859782263389</v>
+        <v>0.1636083316103139</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2580699706576512</v>
+        <v>0.2534026027807642</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>83281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67493</v>
+        <v>67559</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100803</v>
+        <v>101419</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4048137495727465</v>
+        <v>0.4048137495727466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3280699288267115</v>
+        <v>0.3283952888633055</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4899882322492023</v>
+        <v>0.4929790161028125</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>128</v>
@@ -1263,19 +1263,19 @@
         <v>90174</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78988</v>
+        <v>78760</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>102374</v>
+        <v>102660</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4571687067385901</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4004573067891237</v>
+        <v>0.3992986617013054</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5190178882102999</v>
+        <v>0.5204699942333885</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>188</v>
@@ -1284,19 +1284,19 @@
         <v>173455</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>154694</v>
+        <v>151631</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>198111</v>
+        <v>193483</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4304402768207016</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3838830114372192</v>
+        <v>0.3762824245137932</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4916258627094965</v>
+        <v>0.4801410862684498</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>70970</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55051</v>
+        <v>55392</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85819</v>
+        <v>87198</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3449732596226433</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2675961824857597</v>
+        <v>0.2692530772612693</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4171510350062477</v>
+        <v>0.4238550534293342</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -1334,19 +1334,19 @@
         <v>42058</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32790</v>
+        <v>32648</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52639</v>
+        <v>52836</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2132284852942875</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1662378547829475</v>
+        <v>0.1655178375186561</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2668695832899846</v>
+        <v>0.2678681345982287</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>116</v>
@@ -1355,19 +1355,19 @@
         <v>113028</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>94529</v>
+        <v>93991</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>132896</v>
+        <v>131584</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2804872733500024</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2345794795913874</v>
+        <v>0.2332454775816038</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3297898487265911</v>
+        <v>0.3265345326558776</v>
       </c>
     </row>
     <row r="13">
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11488</v>
+        <v>9850</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01589116451057163</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05584093576948257</v>
+        <v>0.04788131112091935</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1405,19 +1405,19 @@
         <v>6843</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3319</v>
+        <v>3477</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12232</v>
+        <v>11920</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03469203257599637</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01682859682842121</v>
+        <v>0.01762557058955532</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06201234864332775</v>
+        <v>0.0604349576849937</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1426,19 +1426,19 @@
         <v>10112</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5208</v>
+        <v>5295</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18531</v>
+        <v>18301</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02509374978320637</v>
+        <v>0.02509374978320636</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01292432167788333</v>
+        <v>0.01313974579067296</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04598604621885029</v>
+        <v>0.04541463322932215</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>10493</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4175</v>
+        <v>4453</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24344</v>
+        <v>24319</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0510034674932085</v>
+        <v>0.05100346749320849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0202945454795994</v>
+        <v>0.02164706067713034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1183300927427969</v>
+        <v>0.1182112347953551</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -1476,19 +1476,19 @@
         <v>12205</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7331</v>
+        <v>7446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19328</v>
+        <v>18781</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.06187718784975126</v>
+        <v>0.06187718784975125</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03716604526232013</v>
+        <v>0.03774970076063029</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09799233960516081</v>
+        <v>0.09521461963497611</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -1497,19 +1497,19 @@
         <v>22698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14651</v>
+        <v>14181</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36804</v>
+        <v>36570</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05632589933325174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03635778182655639</v>
+        <v>0.03519159213377333</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09133130170719791</v>
+        <v>0.09075039597311836</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>7930</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3892</v>
+        <v>4010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14524</v>
+        <v>14628</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05461036533347462</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02680577778502622</v>
+        <v>0.0276178203268333</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1000229065261129</v>
+        <v>0.1007423052942335</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1622,19 +1622,19 @@
         <v>8822</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5137</v>
+        <v>5157</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14030</v>
+        <v>14120</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06201363269544968</v>
+        <v>0.06201363269544966</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03611300887272741</v>
+        <v>0.03625471506256528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09862210447143541</v>
+        <v>0.0992604605315255</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1643,19 +1643,19 @@
         <v>16752</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10849</v>
+        <v>11163</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24552</v>
+        <v>24262</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05827403758692098</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0377390963787598</v>
+        <v>0.03883301790597844</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0854106025249849</v>
+        <v>0.0844018838659877</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>42615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33271</v>
+        <v>32855</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53402</v>
+        <v>53685</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2934782156470708</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.229132464591108</v>
+        <v>0.2262676000747876</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3677715155948717</v>
+        <v>0.3697202842879638</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>88</v>
@@ -1693,19 +1693,19 @@
         <v>54914</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45976</v>
+        <v>46238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65755</v>
+        <v>65179</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3860189186921438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3231880101064019</v>
+        <v>0.3250341349707917</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.462228818907191</v>
+        <v>0.4581782307805647</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>146</v>
@@ -1714,19 +1714,19 @@
         <v>97528</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>84017</v>
+        <v>83829</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110683</v>
+        <v>112058</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3392740500379827</v>
+        <v>0.3392740500379826</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2922718114436967</v>
+        <v>0.2916162887926695</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3850347353034305</v>
+        <v>0.3898201009242765</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>62279</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49244</v>
+        <v>50729</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74263</v>
+        <v>74077</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4289035736285373</v>
+        <v>0.4289035736285372</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3391367392229189</v>
+        <v>0.3493597320424425</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5114383438828104</v>
+        <v>0.5101515673617066</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -1764,19 +1764,19 @@
         <v>47200</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38195</v>
+        <v>38939</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57565</v>
+        <v>56066</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3317907180956483</v>
+        <v>0.3317907180956482</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2684916246191872</v>
+        <v>0.2737195120640386</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.404652611061866</v>
+        <v>0.3941181697168532</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>144</v>
@@ -1785,19 +1785,19 @@
         <v>109478</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>95445</v>
+        <v>95798</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>124553</v>
+        <v>124699</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3808451074307325</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3320248562051555</v>
+        <v>0.3332534220375378</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.433283857401998</v>
+        <v>0.4337934922262262</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>10085</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5416</v>
+        <v>5315</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17169</v>
+        <v>17509</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06945660843127464</v>
+        <v>0.06945660843127466</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03729826005919669</v>
+        <v>0.0366054216666004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1182388635073843</v>
+        <v>0.1205822897421018</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1835,19 +1835,19 @@
         <v>10470</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6152</v>
+        <v>6318</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16766</v>
+        <v>16175</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07359602418278631</v>
+        <v>0.0735960241827863</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04324506968303986</v>
+        <v>0.04441465100596578</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1178559080803097</v>
+        <v>0.1136995974800273</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -1856,19 +1856,19 @@
         <v>20555</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13822</v>
+        <v>14059</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28262</v>
+        <v>29127</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.07150509079626195</v>
+        <v>0.07150509079626197</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04808173148160852</v>
+        <v>0.04890672965364292</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09831708460291069</v>
+        <v>0.1013245295903826</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>22296</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15676</v>
+        <v>15029</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31512</v>
+        <v>30869</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1535512369596427</v>
+        <v>0.1535512369596428</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1079609907702011</v>
+        <v>0.103503553541876</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.217020622352071</v>
+        <v>0.2125902126120766</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -1906,19 +1906,19 @@
         <v>20852</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14430</v>
+        <v>14562</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28401</v>
+        <v>28525</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.146580706333972</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1014391919614021</v>
+        <v>0.1023614044223836</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1996439339947471</v>
+        <v>0.2005204097866004</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -1927,19 +1927,19 @@
         <v>43149</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33080</v>
+        <v>32642</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54688</v>
+        <v>53757</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.150101714148102</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1150752454387597</v>
+        <v>0.1135524647966055</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1902437950630693</v>
+        <v>0.1870049399720106</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>32946</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21211</v>
+        <v>21887</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50951</v>
+        <v>51013</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2309225653428095</v>
+        <v>0.2309225653428094</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1486710202734799</v>
+        <v>0.1534096469962668</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3571230190854132</v>
+        <v>0.3575562771552446</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -2052,19 +2052,19 @@
         <v>44156</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33654</v>
+        <v>33403</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56411</v>
+        <v>56686</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2630315806102648</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2004716205813345</v>
+        <v>0.1989802356932935</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.336037457612987</v>
+        <v>0.337676504823782</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -2073,19 +2073,19 @@
         <v>77102</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>61603</v>
+        <v>62009</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>97860</v>
+        <v>100450</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2482799206432496</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.198370304931446</v>
+        <v>0.1996807905718877</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3151244750305895</v>
+        <v>0.3234640654249258</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>31676</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21170</v>
+        <v>19761</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47672</v>
+        <v>47494</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2220246528363571</v>
+        <v>0.222024652836357</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1483812329837466</v>
+        <v>0.1385066888431389</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3341394019655511</v>
+        <v>0.3328902127874103</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -2123,19 +2123,19 @@
         <v>40400</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>29447</v>
+        <v>30522</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>55160</v>
+        <v>56156</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2406572223202778</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1754155154519137</v>
+        <v>0.1818200026146393</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3285819297175824</v>
+        <v>0.3345157940526246</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>79</v>
@@ -2144,19 +2144,19 @@
         <v>72076</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>57644</v>
+        <v>55339</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>94028</v>
+        <v>90376</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2320969682281141</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1856217649844342</v>
+        <v>0.1782020148239689</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3027848102857951</v>
+        <v>0.2910250565449601</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>41040</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27833</v>
+        <v>27285</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>55981</v>
+        <v>56229</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2876566074845443</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.195082654773844</v>
+        <v>0.1912414685963357</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3923757290447995</v>
+        <v>0.3941131486151196</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>40</v>
@@ -2194,19 +2194,19 @@
         <v>25167</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17558</v>
+        <v>18217</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34256</v>
+        <v>33510</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1499154829565206</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1045897005662013</v>
+        <v>0.1085175849661278</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2040614866923723</v>
+        <v>0.1996160217011201</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>68</v>
@@ -2215,19 +2215,19 @@
         <v>66207</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>51224</v>
+        <v>50371</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>85643</v>
+        <v>83699</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2131970945408901</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1649495218366805</v>
+        <v>0.162202134761558</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2757831304583754</v>
+        <v>0.2695253546499775</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>2617</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>630</v>
+        <v>695</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6319</v>
+        <v>6719</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0183446159613229</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004415473737865565</v>
+        <v>0.004872635052561023</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04429359475505625</v>
+        <v>0.04709319877800335</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2265,19 +2265,19 @@
         <v>8459</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3909</v>
+        <v>4149</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15643</v>
+        <v>15778</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0503922399748152</v>
+        <v>0.05039223997481519</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02328429443924047</v>
+        <v>0.0247159687724764</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09318686669984334</v>
+        <v>0.09399119884733902</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2286,19 +2286,19 @@
         <v>11077</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6013</v>
+        <v>6033</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18746</v>
+        <v>18885</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03566878463805319</v>
+        <v>0.03566878463805318</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01936127050317933</v>
+        <v>0.01942832332039288</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06036444176185172</v>
+        <v>0.06081305019696935</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>34391</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24370</v>
+        <v>24808</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>46952</v>
+        <v>47308</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2410515583749665</v>
+        <v>0.2410515583749664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1708121153985092</v>
+        <v>0.173880069484489</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3290947643890031</v>
+        <v>0.3315866129482379</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>75</v>
@@ -2336,19 +2336,19 @@
         <v>49691</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39253</v>
+        <v>38987</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>61136</v>
+        <v>61567</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2960034741381216</v>
+        <v>0.2960034741381217</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2338256485059258</v>
+        <v>0.232240455030959</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3641851025499852</v>
+        <v>0.36674830391933</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>115</v>
@@ -2357,19 +2357,19 @@
         <v>84082</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>68305</v>
+        <v>69132</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>102251</v>
+        <v>101550</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2707572319496931</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.219951912435727</v>
+        <v>0.222616679389596</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3292649167537259</v>
+        <v>0.3270065563475749</v>
       </c>
     </row>
     <row r="27">
@@ -2464,16 +2464,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6312</v>
+        <v>6573</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.0247545574326875</v>
+        <v>0.02475455743268751</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1277375586632254</v>
+        <v>0.133028298876705</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2482,19 +2482,19 @@
         <v>1937</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>411</v>
+        <v>738</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4709</v>
+        <v>5167</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02835495667797698</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006016785186654557</v>
+        <v>0.01080351862629649</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06892104509074161</v>
+        <v>0.07562989746515626</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -2503,19 +2503,19 @@
         <v>3161</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7911</v>
+        <v>7876</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02684390287194353</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009751593116177825</v>
+        <v>0.009726542071550767</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06719084226369736</v>
+        <v>0.0668961070594727</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>12099</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7632</v>
+        <v>7345</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18001</v>
+        <v>17907</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.244852088605748</v>
+        <v>0.2448520886057481</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.154449392896495</v>
+        <v>0.1486463581241466</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3642992798121716</v>
+        <v>0.3623867753072318</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -2553,19 +2553,19 @@
         <v>25675</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20336</v>
+        <v>19858</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31665</v>
+        <v>31718</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3757735143527209</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2976407378982525</v>
+        <v>0.2906472465334694</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4634497843785759</v>
+        <v>0.4642218976564458</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>79</v>
@@ -2574,19 +2574,19 @@
         <v>37774</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30185</v>
+        <v>30801</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>45410</v>
+        <v>46141</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3208270194813215</v>
+        <v>0.3208270194813214</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2563773073179814</v>
+        <v>0.2616064914615243</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3856891001490903</v>
+        <v>0.391891659285371</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>33348</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27298</v>
+        <v>27331</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38717</v>
+        <v>38789</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.6748724901136253</v>
+        <v>0.6748724901136254</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5524354571216588</v>
+        <v>0.5531047318638161</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7835211538538996</v>
+        <v>0.7849785389965638</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>79</v>
@@ -2624,19 +2624,19 @@
         <v>39846</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33830</v>
+        <v>34017</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>45553</v>
+        <v>45889</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.5831782703006193</v>
+        <v>0.5831782703006194</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.495129683687574</v>
+        <v>0.4978687218806198</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6667143844436885</v>
+        <v>0.671622332223166</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>125</v>
@@ -2645,19 +2645,19 @@
         <v>73193</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>64609</v>
+        <v>65110</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>81644</v>
+        <v>81175</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6216614746344128</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5487492564646718</v>
+        <v>0.5530053241894625</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6934353680840989</v>
+        <v>0.6894582837484946</v>
       </c>
     </row>
     <row r="31">
@@ -2677,16 +2677,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5435</v>
+        <v>4826</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.02913748697446566</v>
+        <v>0.02913748697446567</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1099941835693115</v>
+        <v>0.09765591710723474</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4998</v>
+        <v>5161</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01222873009114754</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04244813156481388</v>
+        <v>0.04383356074498197</v>
       </c>
     </row>
     <row r="32">
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4534</v>
+        <v>4398</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02638337687347344</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09176290331053352</v>
+        <v>0.0890023385683861</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2756</v>
+        <v>2663</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01269325866868269</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0403333308746539</v>
+        <v>0.03897516115579908</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -2779,19 +2779,19 @@
         <v>2171</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>747</v>
+        <v>578</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5076</v>
+        <v>5393</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01843887292117474</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006347592993944782</v>
+        <v>0.004911419315080272</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04311032497653883</v>
+        <v>0.04580580791056781</v>
       </c>
     </row>
     <row r="33">
@@ -2883,19 +2883,19 @@
         <v>2701</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>876</v>
+        <v>740</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6849</v>
+        <v>6534</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02396588794875445</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007771134169363291</v>
+        <v>0.00656595109158124</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06077457981035216</v>
+        <v>0.05798206591122124</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2904,19 +2904,19 @@
         <v>2301</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6641</v>
+        <v>6703</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01943550964781986</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004759439089315266</v>
+        <v>0.004689203148684287</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05609195695382597</v>
+        <v>0.05661463654998577</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>8</v>
@@ -2925,19 +2925,19 @@
         <v>5002</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9958</v>
+        <v>10718</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.02164482834342349</v>
+        <v>0.02164482834342348</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009513860347775833</v>
+        <v>0.009527406505818741</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04309072977843573</v>
+        <v>0.04638207383047397</v>
       </c>
     </row>
     <row r="35">
@@ -2954,19 +2954,19 @@
         <v>37980</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29815</v>
+        <v>29610</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>49586</v>
+        <v>47607</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.3370205578385227</v>
+        <v>0.3370205578385226</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2645726428836515</v>
+        <v>0.2627535836782767</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4400054031706087</v>
+        <v>0.4224454690330621</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>82</v>
@@ -2975,19 +2975,19 @@
         <v>40598</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>33184</v>
+        <v>33663</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>49101</v>
+        <v>49583</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3429105526894967</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2802910414800351</v>
+        <v>0.2843337475378057</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4147304253107917</v>
+        <v>0.4187963880994749</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>134</v>
@@ -2996,19 +2996,19 @@
         <v>78578</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>67950</v>
+        <v>67590</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>91970</v>
+        <v>92529</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.3400381930592687</v>
+        <v>0.3400381930592686</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2940455554113329</v>
+        <v>0.2924851501351839</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3979886869265093</v>
+        <v>0.4004070508802445</v>
       </c>
     </row>
     <row r="36">
@@ -3025,19 +3025,19 @@
         <v>52385</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>43524</v>
+        <v>43198</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>61982</v>
+        <v>62894</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.464843497648307</v>
+        <v>0.4648434976483068</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3862130932269282</v>
+        <v>0.3833264828188991</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5500119333822592</v>
+        <v>0.5580960877830653</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>84</v>
@@ -3046,19 +3046,19 @@
         <v>55139</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>46497</v>
+        <v>45450</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>63724</v>
+        <v>63262</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4657296511093277</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3927355129870035</v>
+        <v>0.3838878515493074</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5382388857462322</v>
+        <v>0.5343413807167201</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>152</v>
@@ -3067,19 +3067,19 @@
         <v>107524</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>94647</v>
+        <v>93317</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>120352</v>
+        <v>119707</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.4652975027811841</v>
+        <v>0.465297502781184</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4095725003408103</v>
+        <v>0.4038154582468406</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.520807003376963</v>
+        <v>0.5180154059728341</v>
       </c>
     </row>
     <row r="37">
@@ -3096,19 +3096,19 @@
         <v>5437</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2537</v>
+        <v>2624</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10208</v>
+        <v>10585</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.04824425818984824</v>
+        <v>0.04824425818984823</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02251547106493674</v>
+        <v>0.0232878555443578</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09058057974753046</v>
+        <v>0.0939247948006996</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -3117,19 +3117,19 @@
         <v>5555</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2996</v>
+        <v>2867</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>9931</v>
+        <v>10106</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04692388611803965</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02530690552880053</v>
+        <v>0.02421514415844978</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08387744013054084</v>
+        <v>0.08536001603294385</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>20</v>
@@ -3138,19 +3138,19 @@
         <v>10992</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6925</v>
+        <v>7097</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>17394</v>
+        <v>16729</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.04756778879230371</v>
+        <v>0.04756778879230369</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02996796088330492</v>
+        <v>0.03071296537377682</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07526986578425114</v>
+        <v>0.07239319821917604</v>
       </c>
     </row>
     <row r="38">
@@ -3167,19 +3167,19 @@
         <v>14191</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>8914</v>
+        <v>8737</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>22358</v>
+        <v>22255</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1259257983745678</v>
+        <v>0.1259257983745677</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07909614889117804</v>
+        <v>0.07752591459033141</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1983942907062189</v>
+        <v>0.1974811983581512</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>28</v>
@@ -3188,19 +3188,19 @@
         <v>14799</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>10028</v>
+        <v>10244</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>20288</v>
+        <v>20923</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.125000400435316</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08469804602821492</v>
+        <v>0.08652829379291244</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1713595024779426</v>
+        <v>0.1767258467613655</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>47</v>
@@ -3209,19 +3209,19 @@
         <v>28990</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>21932</v>
+        <v>21723</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>38581</v>
+        <v>38380</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1254516870238201</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09490835148367469</v>
+        <v>0.09400570904946401</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1669558139701957</v>
+        <v>0.1660829223924349</v>
       </c>
     </row>
     <row r="39">
@@ -3313,19 +3313,19 @@
         <v>38261</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>23842</v>
+        <v>23217</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>56321</v>
+        <v>57224</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1631292830199614</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1016520591986244</v>
+        <v>0.09898532256294319</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2401294566738135</v>
+        <v>0.2439778553552269</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>35</v>
@@ -3334,19 +3334,19 @@
         <v>30121</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>21313</v>
+        <v>21025</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>42444</v>
+        <v>42341</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1189776573486838</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08418795615339622</v>
+        <v>0.08305036020553412</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.167657023196939</v>
+        <v>0.1672502731540879</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>58</v>
@@ -3355,19 +3355,19 @@
         <v>68382</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>52213</v>
+        <v>52638</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>92890</v>
+        <v>91478</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1402109067410909</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1070575352915011</v>
+        <v>0.1079296138735228</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1904635664086856</v>
+        <v>0.1875673749909509</v>
       </c>
     </row>
     <row r="41">
@@ -3384,19 +3384,19 @@
         <v>38070</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>28194</v>
+        <v>27935</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>53090</v>
+        <v>50458</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1623120286778184</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1202056201526676</v>
+        <v>0.1191040700752287</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2263525699326456</v>
+        <v>0.2151321182701284</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>85</v>
@@ -3405,19 +3405,19 @@
         <v>62199</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>50539</v>
+        <v>51063</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>73879</v>
+        <v>75777</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2456889806408142</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1996304529657439</v>
+        <v>0.2017012106232177</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2918261806500905</v>
+        <v>0.2993240468594748</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>122</v>
@@ -3426,19 +3426,19 @@
         <v>100268</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>83841</v>
+        <v>84607</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>119467</v>
+        <v>119547</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2055916209696225</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1719093699360224</v>
+        <v>0.173478918479194</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2449560418873969</v>
+        <v>0.2451198424450302</v>
       </c>
     </row>
     <row r="42">
@@ -3455,19 +3455,19 @@
         <v>105460</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>88716</v>
+        <v>88467</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>123306</v>
+        <v>122786</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4496327482553905</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3782449763586216</v>
+        <v>0.3771847613001701</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5257221454273672</v>
+        <v>0.5235058017181633</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>140</v>
@@ -3476,19 +3476,19 @@
         <v>108273</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>93700</v>
+        <v>93278</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>121283</v>
+        <v>122089</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.4276841624775914</v>
+        <v>0.4276841624775913</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3701201500837365</v>
+        <v>0.3684530579332789</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4790752258940648</v>
+        <v>0.4822600646874279</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>236</v>
@@ -3497,19 +3497,19 @@
         <v>213733</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>191013</v>
+        <v>191117</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>235092</v>
+        <v>237425</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.4382396015706036</v>
+        <v>0.4382396015706037</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3916548622720001</v>
+        <v>0.3918676603547866</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4820353022523977</v>
+        <v>0.4868180108341373</v>
       </c>
     </row>
     <row r="43">
@@ -3526,19 +3526,19 @@
         <v>28114</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>18840</v>
+        <v>18379</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>43309</v>
+        <v>42047</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1198652950825411</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.08032369091602994</v>
+        <v>0.07835865915129546</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.184652417074823</v>
+        <v>0.1792703690784423</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>39</v>
@@ -3547,19 +3547,19 @@
         <v>32246</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>23300</v>
+        <v>23130</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>42667</v>
+        <v>43029</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1273725072759893</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09203432374138333</v>
+        <v>0.09136662863359538</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.168538785874687</v>
+        <v>0.1699683970887915</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>62</v>
@@ -3568,19 +3568,19 @@
         <v>60360</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>46587</v>
+        <v>47139</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>76141</v>
+        <v>77374</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1237621643651301</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.09552240279252754</v>
+        <v>0.09665439652222352</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1561200146560007</v>
+        <v>0.1586493995681599</v>
       </c>
     </row>
     <row r="44">
@@ -3597,19 +3597,19 @@
         <v>24642</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>15594</v>
+        <v>15274</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>37582</v>
+        <v>36285</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1050606449642885</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06648725030199375</v>
+        <v>0.0651232826854146</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1602308451509459</v>
+        <v>0.154705009551913</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>28</v>
@@ -3618,19 +3618,19 @@
         <v>20323</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>13395</v>
+        <v>13145</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>28371</v>
+        <v>28295</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.08027669225692149</v>
+        <v>0.08027669225692148</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.05291089140037551</v>
+        <v>0.0519232672469072</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.112065462574879</v>
+        <v>0.1117686090895317</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>49</v>
@@ -3639,19 +3639,19 @@
         <v>44964</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>33539</v>
+        <v>32941</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>60522</v>
+        <v>56996</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.09219570635355283</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06876924519580764</v>
+        <v>0.06754167120720753</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1240957723884848</v>
+        <v>0.1168661608906287</v>
       </c>
     </row>
     <row r="45">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>10307</v>
+        <v>10331</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.009019832197058373</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03114165141868802</v>
+        <v>0.03121220088894934</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>6325</v>
+        <v>6175</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.005031195235012279</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01836741416920838</v>
+        <v>0.01793082548990219</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>4</v>
@@ -3785,19 +3785,19 @@
         <v>4718</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1696</v>
+        <v>1133</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>13124</v>
+        <v>11855</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.006986025680491775</v>
+        <v>0.006986025680491774</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002511976426908378</v>
+        <v>0.001677954789928701</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.019433510025697</v>
+        <v>0.01755373561670958</v>
       </c>
     </row>
     <row r="47">
@@ -3814,19 +3814,19 @@
         <v>51016</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>37734</v>
+        <v>38836</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>67008</v>
+        <v>66930</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1541345878163826</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1140064459103854</v>
+        <v>0.1173357041485035</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2024495002868413</v>
+        <v>0.2022160176222179</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>78</v>
@@ -3835,19 +3835,19 @@
         <v>67846</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>55749</v>
+        <v>52773</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>84843</v>
+        <v>83254</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.197021790730711</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1618918175266526</v>
+        <v>0.1532522111642929</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2463806434659872</v>
+        <v>0.2417670908914683</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>120</v>
@@ -3856,19 +3856,19 @@
         <v>118862</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>99554</v>
+        <v>97749</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>140418</v>
+        <v>141834</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1760027782770483</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1474123305810569</v>
+        <v>0.1447398224636663</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2079214187646968</v>
+        <v>0.2100173421467309</v>
       </c>
     </row>
     <row r="48">
@@ -3885,19 +3885,19 @@
         <v>85490</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>71113</v>
+        <v>71564</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>104973</v>
+        <v>103605</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2582906538033112</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2148514474624318</v>
+        <v>0.2162139368657543</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3171531300857046</v>
+        <v>0.3130214110460099</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>109</v>
@@ -3906,19 +3906,19 @@
         <v>80197</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>65966</v>
+        <v>67032</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>93823</v>
+        <v>95018</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2328886043844725</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1915622668201041</v>
+        <v>0.1946594906981256</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2724594698820366</v>
+        <v>0.2759295621483716</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>197</v>
@@ -3927,19 +3927,19 @@
         <v>165687</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>144997</v>
+        <v>144755</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>187141</v>
+        <v>187522</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2453381454317097</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2147010572659529</v>
+        <v>0.2143430716029759</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2771050179414797</v>
+        <v>0.2776692783316939</v>
       </c>
     </row>
     <row r="49">
@@ -3956,19 +3956,19 @@
         <v>133825</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>116701</v>
+        <v>113259</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>154683</v>
+        <v>150816</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4043243341255218</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3525861714736276</v>
+        <v>0.3421881919733847</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4673403176974951</v>
+        <v>0.4556576671383266</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>153</v>
@@ -3977,19 +3977,19 @@
         <v>115388</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>100107</v>
+        <v>99851</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>131339</v>
+        <v>129994</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3350813585929008</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2907071242714413</v>
+        <v>0.2899632349626804</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3814035960259787</v>
+        <v>0.377496328557707</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>282</v>
@@ -3998,19 +3998,19 @@
         <v>249213</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>223827</v>
+        <v>223162</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>274696</v>
+        <v>273351</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.3690173317072157</v>
+        <v>0.3690173317072158</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3314282058633997</v>
+        <v>0.3304434516139926</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4067503236586298</v>
+        <v>0.4047596812234218</v>
       </c>
     </row>
     <row r="50">
@@ -4027,19 +4027,19 @@
         <v>57668</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>43476</v>
+        <v>44126</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>75164</v>
+        <v>71806</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1742305920577261</v>
+        <v>0.1742305920577262</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1313535286510904</v>
+        <v>0.1333183717957634</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2270929898339153</v>
+        <v>0.2169464520961568</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>99</v>
@@ -4048,19 +4048,19 @@
         <v>79194</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>66641</v>
+        <v>65979</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>94449</v>
+        <v>95077</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2299770510569034</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1935217929369024</v>
+        <v>0.1915992816735649</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2742752039846555</v>
+        <v>0.2760998738330849</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>158</v>
@@ -4069,19 +4069,19 @@
         <v>136862</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>117190</v>
+        <v>118336</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>156592</v>
+        <v>159906</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2026557189035343</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1735262264462673</v>
+        <v>0.1752241971571984</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2318710851406806</v>
+        <v>0.2367784530843094</v>
       </c>
     </row>
     <row r="51">
@@ -4173,19 +4173,19 @@
         <v>128215</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>98867</v>
+        <v>102828</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>157017</v>
+        <v>160363</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.09447760662819985</v>
+        <v>0.09447760662819986</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.07285136452717583</v>
+        <v>0.07577021886415025</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1157002239344423</v>
+        <v>0.1181660660032204</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>186</v>
@@ -4194,19 +4194,19 @@
         <v>136520</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>116416</v>
+        <v>117572</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>157346</v>
+        <v>159400</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.09462216219111727</v>
+        <v>0.09462216219111726</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.08068802844526564</v>
+        <v>0.08148923937609683</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.109056726427632</v>
+        <v>0.1104803075966566</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>279</v>
@@ -4215,19 +4215,19 @@
         <v>264735</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>229728</v>
+        <v>230673</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>298542</v>
+        <v>302529</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.09455209648156485</v>
+        <v>0.09455209648156487</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.08204905933877461</v>
+        <v>0.08238664030540463</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1066265041724944</v>
+        <v>0.1080505524775268</v>
       </c>
     </row>
     <row r="53">
@@ -4244,19 +4244,19 @@
         <v>333148</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>301480</v>
+        <v>301969</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>369082</v>
+        <v>369351</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2454856690581959</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2221506117984195</v>
+        <v>0.2225105346844462</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.271963920274288</v>
+        <v>0.2721621366900221</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>674</v>
@@ -4265,19 +4265,19 @@
         <v>443842</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>413087</v>
+        <v>410207</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>475232</v>
+        <v>474534</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.3076276115727188</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.286311004411802</v>
+        <v>0.2843151876714421</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.3293837159809631</v>
+        <v>0.3289003596664291</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1002</v>
@@ -4286,19 +4286,19 @@
         <v>776990</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>732399</v>
+        <v>736279</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>826302</v>
+        <v>827097</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.277507571863614</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2615815436525645</v>
+        <v>0.262967419568767</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2951197682615799</v>
+        <v>0.2954035669450171</v>
       </c>
     </row>
     <row r="54">
@@ -4315,19 +4315,19 @@
         <v>517923</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>480299</v>
+        <v>477432</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>558895</v>
+        <v>554436</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.3816395871538545</v>
+        <v>0.3816395871538546</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3539160631795744</v>
+        <v>0.3518036204984026</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4118303226470926</v>
+        <v>0.408544939036179</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>707</v>
@@ -4336,19 +4336,19 @@
         <v>464961</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>436643</v>
+        <v>432128</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>496650</v>
+        <v>494365</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3222649810857255</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3026380636609912</v>
+        <v>0.2995083650054371</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3442288986921875</v>
+        <v>0.3426449701616258</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1233</v>
@@ -4357,19 +4357,19 @@
         <v>982883</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>929743</v>
+        <v>933460</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1027269</v>
+        <v>1029521</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3510436999367906</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3320645082194433</v>
+        <v>0.3333917390557175</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3668965584934238</v>
+        <v>0.3677008390387229</v>
       </c>
     </row>
     <row r="55">
@@ -4386,19 +4386,19 @@
         <v>203344</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>174372</v>
+        <v>176567</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>231209</v>
+        <v>233893</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1498374495422164</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1284888362876428</v>
+        <v>0.1301058599102834</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.17036998033085</v>
+        <v>0.1723474462041725</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>263</v>
@@ -4407,19 +4407,19 @@
         <v>191067</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>169114</v>
+        <v>171090</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>214519</v>
+        <v>218673</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.132428866028688</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1172131500697053</v>
+        <v>0.1185828645997329</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1486834240237433</v>
+        <v>0.1515626517309073</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>464</v>
@@ -4428,19 +4428,19 @@
         <v>394411</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>358780</v>
+        <v>356078</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>429573</v>
+        <v>432551</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1408667616832083</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1281408941786149</v>
+        <v>0.1271757037392293</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1534251269462494</v>
+        <v>0.1544887977327504</v>
       </c>
     </row>
     <row r="56">
@@ -4457,19 +4457,19 @@
         <v>174468</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>151178</v>
+        <v>151275</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>204189</v>
+        <v>199203</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1285596876175332</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1113980304615795</v>
+        <v>0.1114695642314339</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1504599463857089</v>
+        <v>0.1467859002611431</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>299</v>
@@ -4478,19 +4478,19 @@
         <v>206400</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>185702</v>
+        <v>181574</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>231216</v>
+        <v>230423</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.1430563791217505</v>
+        <v>0.1430563791217504</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1287103592515719</v>
+        <v>0.1258492315218938</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1602559240711634</v>
+        <v>0.1597066275317468</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>487</v>
@@ -4499,19 +4499,19 @@
         <v>380868</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>348404</v>
+        <v>349767</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>413474</v>
+        <v>419465</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1360298700348222</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1244351089699723</v>
+        <v>0.124921635312282</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1476752587644014</v>
+        <v>0.1498147783395706</v>
       </c>
     </row>
     <row r="57">
